--- a/2020/Directivos-colegio/Coordinacion/listados/20200616 Listado de medios de comunicacion con estudiantes.xlsx
+++ b/2020/Directivos-colegio/Coordinacion/listados/20200616 Listado de medios de comunicacion con estudiantes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\Directivos-colegio\Coordinacion\listados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5632D878-1262-4252-99AE-10A3647B92AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D0014-6630-4639-AADF-35793FECB8C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="735" windowWidth="16440" windowHeight="13710" tabRatio="710" firstSheet="3" activeTab="13" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
+    <workbookView xWindow="2235" yWindow="1335" windowWidth="13935" windowHeight="10395" tabRatio="710" firstSheet="10" activeTab="14" xr2:uid="{50E3D567-1B3A-45B1-BFAB-81E44AF5B42C}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="15" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="531">
   <si>
     <t>Codigo</t>
   </si>
@@ -1615,9 +1615,6 @@
   <si>
     <t>Le he escrito al director por este chico.
 Le he escrito por whatsapp</t>
-  </si>
-  <si>
-    <t>Esta joven se reitro</t>
   </si>
   <si>
     <t>Por celular, por correo</t>
@@ -1814,7 +1811,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2027,6 +2024,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2269,7 +2278,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2409,6 +2418,23 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2417,6 +2443,22 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2906,46 +2948,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>29</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3098,46 +3140,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3573,46 +3615,46 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.875</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61764705882352944</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.94444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81818181818181823</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0.94117647058823528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73529411764705888</c:v>
+                  <c:v>0.91176470588235292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82352941176470584</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.8235294117647065E-2</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.93939393939393945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.87878787878787878</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.94117647058823528</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87878787878787878</c:v>
+                  <c:v>0.96969696969696972</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.93939393939393945</c:v>
+                  <c:v>0.96969696969696972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3762,46 +3804,46 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38235294117647056</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>5.5555555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18181818181818182</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>5.8823529411764705E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26470588235294118</c:v>
+                  <c:v>8.8235294117647065E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17647058823529413</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.91176470588235292</c:v>
+                  <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>6.0606060606060608E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12121212121212122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8823529411764705E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12121212121212122</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5627,35 +5669,35 @@
       </c>
       <c r="B5" s="10">
         <f>'06-1'!D50</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5" s="10">
         <f>'08-1'!D44</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D5" s="10">
         <f>'08-2'!D46</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E5" s="10">
         <f>'08-3'!D44</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F5" s="10">
         <f>'08-4'!D44</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G5" s="10">
         <f>'09-1'!D44</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H5" s="10">
         <f>'09-2'!D44</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I5" s="10">
         <f>'09-3'!D44</f>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J5" s="10">
         <f>'10-1'!D43</f>
@@ -5663,35 +5705,35 @@
       </c>
       <c r="K5" s="10">
         <f>'10-2'!D42</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L5" s="10">
         <f>'10-3'!D43</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M5" s="10">
         <f>'11-1'!D44</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5" s="10">
         <f>'11-2'!D43</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O5" s="10">
         <f>'11-3'!D43</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" s="33">
         <f t="shared" ref="P5:P8" si="0">AVERAGE(B5:O5)</f>
-        <v>26.142857142857142</v>
+        <v>32.857142857142854</v>
       </c>
       <c r="Q5" s="33">
         <f t="shared" ref="Q5:Q8" si="1">MAX(B5:O5)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R5" s="33">
         <f t="shared" ref="R5:R8" si="2">MIN(B5:O5)</f>
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5700,35 +5742,35 @@
       </c>
       <c r="B6" s="10">
         <f>'06-1'!D51</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="10">
         <f>'08-1'!D45</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D6" s="10">
         <f>'08-2'!D47</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6" s="10">
         <f>'08-3'!D45</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F6" s="10">
         <f>'08-4'!D45</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6" s="10">
         <f>'09-1'!D45</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H6" s="10">
         <f>'09-2'!D45</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I6" s="10">
         <f>'09-3'!D45</f>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="J6" s="10">
         <f>'10-1'!D44</f>
@@ -5736,35 +5778,35 @@
       </c>
       <c r="K6" s="10">
         <f>'10-2'!D43</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L6" s="10">
         <f>'10-3'!D44</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M6" s="10">
         <f>'11-1'!D45</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="10">
         <f>'11-2'!D44</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O6" s="10">
         <f>'11-3'!D44</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" s="33">
         <f t="shared" si="0"/>
-        <v>7.9285714285714288</v>
+        <v>1.2142857142857142</v>
       </c>
       <c r="Q6" s="33">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="R6" s="33">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5773,35 +5815,35 @@
       </c>
       <c r="B7" s="32">
         <f>B5/B4</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C7" s="32">
         <f t="shared" ref="C7:O7" si="3">C5/C4</f>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
       <c r="D7" s="32">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="E7" s="32">
         <f t="shared" si="3"/>
-        <v>0.81818181818181823</v>
+        <v>1</v>
       </c>
       <c r="F7" s="32">
         <f t="shared" si="3"/>
-        <v>0.70588235294117652</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="G7" s="32">
         <f t="shared" si="3"/>
-        <v>0.73529411764705888</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="H7" s="32">
         <f t="shared" si="3"/>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="I7" s="32">
         <f t="shared" si="3"/>
-        <v>8.8235294117647065E-2</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="J7" s="32">
         <f t="shared" si="3"/>
@@ -5809,35 +5851,35 @@
       </c>
       <c r="K7" s="32">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="L7" s="32">
         <f t="shared" si="3"/>
-        <v>0.87878787878787878</v>
+        <v>1</v>
       </c>
       <c r="M7" s="32">
         <f t="shared" si="3"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="N7" s="32">
         <f t="shared" si="3"/>
-        <v>0.87878787878787878</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="O7" s="32">
         <f t="shared" si="3"/>
-        <v>0.93939393939393945</v>
+        <v>0.96969696969696972</v>
       </c>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0.76723644003055758</v>
+        <v>0.96400188863424163</v>
       </c>
       <c r="Q7" s="34">
         <f t="shared" si="1"/>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="R7" s="34">
         <f t="shared" si="2"/>
-        <v>8.8235294117647065E-2</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -5846,35 +5888,35 @@
       </c>
       <c r="B8" s="36">
         <f>B6/B4</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="C8" s="36">
         <f t="shared" ref="C8:O8" si="4">C6/C4</f>
-        <v>0.38235294117647056</v>
+        <v>0</v>
       </c>
       <c r="D8" s="36">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="E8" s="36">
         <f t="shared" si="4"/>
-        <v>0.18181818181818182</v>
+        <v>0</v>
       </c>
       <c r="F8" s="36">
         <f t="shared" si="4"/>
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="G8" s="36">
         <f t="shared" si="4"/>
-        <v>0.26470588235294118</v>
+        <v>8.8235294117647065E-2</v>
       </c>
       <c r="H8" s="36">
         <f t="shared" si="4"/>
-        <v>0.17647058823529413</v>
+        <v>0</v>
       </c>
       <c r="I8" s="36">
         <f t="shared" si="4"/>
-        <v>0.91176470588235292</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="J8" s="36">
         <f t="shared" si="4"/>
@@ -5882,35 +5924,35 @@
       </c>
       <c r="K8" s="36">
         <f t="shared" si="4"/>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="L8" s="36">
         <f t="shared" si="4"/>
-        <v>0.12121212121212122</v>
+        <v>0</v>
       </c>
       <c r="M8" s="36">
         <f t="shared" si="4"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="36">
         <f t="shared" si="4"/>
-        <v>0.12121212121212122</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="O8" s="36">
         <f t="shared" si="4"/>
-        <v>6.0606060606060608E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="P8" s="37">
         <f t="shared" si="0"/>
-        <v>0.23276355996944229</v>
+        <v>3.5998111365758423E-2</v>
       </c>
       <c r="Q8" s="37">
         <f t="shared" si="1"/>
-        <v>0.91176470588235292</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="R8" s="37">
         <f t="shared" si="2"/>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
@@ -6259,8 +6301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE5E425-7606-4CA0-91F7-19ECFA2BFA71}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6277,26 +6319,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6913,11 +6955,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>30</v>
@@ -7012,7 +7054,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7029,26 +7071,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -7076,7 +7118,7 @@
         <v>496</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -7125,9 +7167,12 @@
       <c r="C7" s="9" t="s">
         <v>357</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -7245,9 +7290,12 @@
       <c r="C14" s="9" t="s">
         <v>364</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -7301,7 +7349,7 @@
         <v>X</v>
       </c>
       <c r="I17" s="51" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -7350,9 +7398,12 @@
       <c r="C20" s="9" t="s">
         <v>370</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -7437,9 +7488,12 @@
       <c r="C25" s="9" t="s">
         <v>375</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -7470,9 +7524,12 @@
       <c r="C27" s="9" t="s">
         <v>377</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -7611,9 +7668,12 @@
       <c r="C35" s="9" t="s">
         <v>385</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -7635,14 +7695,14 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B37" s="54"/>
-      <c r="C37" s="55"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="22">
         <f>COUNTA(D5:D36)</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E37" s="22">
         <f t="shared" ref="E37:G37" si="1">COUNTA(E5:E36)</f>
@@ -7658,7 +7718,7 @@
       </c>
       <c r="H37" s="23">
         <f>COUNTIF($H$5:$H$36,"X")</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -7690,11 +7750,11 @@
       </c>
       <c r="D42" s="10">
         <f>D41-D43</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E42" s="12">
         <f>D42/D41</f>
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -7703,11 +7763,11 @@
       </c>
       <c r="D43" s="10">
         <f>H37</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D41</f>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7728,8 +7788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E6AB2A-DF13-43E5-8B37-FC6F541704E3}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7746,26 +7806,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -7857,9 +7917,12 @@
       <c r="C8" s="9" t="s">
         <v>390</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -8124,9 +8187,12 @@
       <c r="C23" s="9" t="s">
         <v>405</v>
       </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8139,9 +8205,12 @@
       <c r="C24" s="9" t="s">
         <v>406</v>
       </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -8172,10 +8241,10 @@
       <c r="C26" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="H26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
@@ -8376,11 +8445,11 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>29</v>
@@ -8391,7 +8460,7 @@
       </c>
       <c r="F38" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G38" s="22">
         <f t="shared" si="1"/>
@@ -8399,7 +8468,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -8433,11 +8502,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.87878787878787878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -8446,11 +8515,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>0.12121212121212122</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8471,8 +8540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FF5F04-C5ED-4EA2-B9A1-243676970C03}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8489,26 +8558,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -8780,9 +8849,12 @@
       <c r="C18" s="9" t="s">
         <v>433</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -8993,9 +9065,12 @@
       <c r="C30" s="9" t="s">
         <v>445</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9143,14 +9218,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -9166,7 +9241,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF(H5:H38,"X")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9200,11 +9275,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -9213,11 +9288,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9238,8 +9313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A71EA1-F646-4F3E-830E-E1FBC54465F3}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:G38"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9255,26 +9330,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
@@ -9323,7 +9398,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f>IF(COUNTA(D5:G5)=0,"X","")</f>
+        <f t="shared" ref="H5:H37" si="0">IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
       </c>
     </row>
@@ -9341,7 +9416,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>IF(COUNTA(D6:G6)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9356,9 +9431,12 @@
         <v>50</v>
       </c>
       <c r="D7" s="3"/>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
-        <f>IF(COUNTA(D7:G7)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9375,7 +9453,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f>IF(COUNTA(D8:G8)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9393,7 +9471,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f>IF(COUNTA(D9:G9)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9411,7 +9489,7 @@
         <v>43</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f>IF(COUNTA(D10:G10)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9429,7 +9507,7 @@
         <v>43</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f>IF(COUNTA(D11:G11)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9447,7 +9525,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f>IF(COUNTA(D12:G12)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9465,7 +9543,7 @@
         <v>43</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f>IF(COUNTA(D13:G13)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9483,7 +9561,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f>IF(COUNTA(D14:G14)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9501,7 +9579,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f>IF(COUNTA(D15:G15)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9519,7 +9597,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f>IF(COUNTA(D16:G16)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9537,7 +9615,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f>IF(COUNTA(D17:G17)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9555,7 +9633,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f>IF(COUNTA(D18:G18)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9573,7 +9651,7 @@
         <v>43</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f>IF(COUNTA(D19:G19)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9591,7 +9669,7 @@
         <v>43</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f>IF(COUNTA(D20:G20)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9609,7 +9687,7 @@
         <v>43</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f>IF(COUNTA(D21:G21)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9627,7 +9705,7 @@
         <v>43</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f>IF(COUNTA(D22:G22)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9645,7 +9723,7 @@
         <v>43</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f>IF(COUNTA(D23:G23)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9660,9 +9738,12 @@
         <v>67</v>
       </c>
       <c r="D24" s="3"/>
+      <c r="F24" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
-        <f>IF(COUNTA(D24:G24)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -9679,7 +9760,7 @@
         <v>43</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f>IF(COUNTA(D25:G25)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9697,7 +9778,7 @@
         <v>43</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f>IF(COUNTA(D26:G26)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9713,7 +9794,7 @@
       </c>
       <c r="D27" s="3"/>
       <c r="H27" s="4" t="str">
-        <f>IF(COUNTA(D27:G27)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
     </row>
@@ -9731,7 +9812,7 @@
         <v>43</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f>IF(COUNTA(D28:G28)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9749,11 +9830,11 @@
         <v>43</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f>IF(COUNTA(D29:G29)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -9770,7 +9851,7 @@
         <v>43</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f>IF(COUNTA(D30:G30)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9788,7 +9869,7 @@
         <v>43</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f>IF(COUNTA(D31:G31)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9806,7 +9887,7 @@
         <v>43</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f>IF(COUNTA(D32:G32)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9824,7 +9905,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f>IF(COUNTA(D33:G33)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9839,9 +9920,12 @@
         <v>77</v>
       </c>
       <c r="D34" s="3"/>
+      <c r="F34" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
-        <f>IF(COUNTA(D34:G34)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -9858,7 +9942,7 @@
         <v>43</v>
       </c>
       <c r="H35" s="4" t="str">
-        <f>IF(COUNTA(D35:G35)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9876,7 +9960,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f>IF(COUNTA(D36:G36)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -9894,35 +9978,35 @@
         <v>43</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f>IF(COUNTA(D37:G37)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
         <v>28</v>
       </c>
       <c r="E38" s="22">
-        <f t="shared" ref="E38:G38" si="0">COUNTA(E5:E37)</f>
+        <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
         <v>0</v>
       </c>
       <c r="F38" s="22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="G38" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -9956,11 +10040,11 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E43" s="12">
         <f>D43/D42</f>
-        <v>0.87878787878787878</v>
+        <v>0.96969696969696972</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -9969,11 +10053,11 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D42</f>
-        <v>0.12121212121212122</v>
+        <v>3.0303030303030304E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9994,8 +10078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D56A688-FE73-4566-841A-31D529165F68}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10012,26 +10096,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -10159,9 +10243,12 @@
       <c r="C10" s="9" t="s">
         <v>459</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10648,14 +10735,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -10671,7 +10758,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -10704,7 +10791,7 @@
       </c>
       <c r="D43" s="10">
         <f>D42-D44</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" s="12">
         <v>0.8529411764705882</v>
@@ -10716,7 +10803,7 @@
       </c>
       <c r="D44" s="10">
         <f>H38</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="12">
         <v>0.14705882352941177</v>
@@ -10745,8 +10832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10762,26 +10849,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -10825,6 +10912,9 @@
       <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="4" t="str">
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
@@ -10846,6 +10936,9 @@
       <c r="D6" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
       <c r="H6" s="4" t="str">
         <f t="shared" ref="H6:H44" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
         <v/>
@@ -10867,6 +10960,9 @@
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10888,6 +10984,9 @@
       <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10909,6 +11008,9 @@
       <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10924,9 +11026,14 @@
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I10" t="s">
         <v>43</v>
@@ -10945,6 +11052,9 @@
       <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10963,6 +11073,9 @@
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -10981,9 +11094,15 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -10999,6 +11118,9 @@
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11020,6 +11142,9 @@
       <c r="D15" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11041,6 +11166,9 @@
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11062,6 +11190,9 @@
       <c r="D17" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11083,6 +11214,9 @@
       <c r="D18" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11104,6 +11238,9 @@
       <c r="D19" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11125,6 +11262,9 @@
       <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11146,6 +11286,9 @@
       <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11167,6 +11310,9 @@
       <c r="D22" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11188,6 +11334,9 @@
       <c r="D23" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11206,9 +11355,15 @@
       <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I24" t="s">
         <v>43</v>
@@ -11227,6 +11382,9 @@
       <c r="D25" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11245,6 +11403,9 @@
       <c r="D26" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11263,9 +11424,15 @@
       <c r="C27" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I27" t="s">
         <v>43</v>
@@ -11284,6 +11451,9 @@
       <c r="D28" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11305,6 +11475,9 @@
       <c r="D29" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
       <c r="H29" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11326,6 +11499,9 @@
       <c r="D30" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11347,6 +11523,9 @@
       <c r="D31" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11368,6 +11547,9 @@
       <c r="D32" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11386,6 +11568,9 @@
       <c r="D33" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11407,6 +11592,9 @@
       <c r="D34" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11428,6 +11616,9 @@
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11449,6 +11640,9 @@
       <c r="D36" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11470,6 +11664,9 @@
       <c r="D37" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11491,6 +11688,9 @@
       <c r="D38" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11512,6 +11712,9 @@
       <c r="D39" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11533,6 +11736,9 @@
       <c r="D40" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11548,12 +11754,17 @@
       <c r="B41">
         <v>37</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="54" t="s">
         <v>39</v>
       </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I41" t="s">
         <v>43</v>
@@ -11572,6 +11783,9 @@
       <c r="D42" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11593,6 +11807,9 @@
       <c r="D43" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11611,6 +11828,9 @@
       <c r="D44" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
       <c r="H44" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -11620,14 +11840,14 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="55"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="22">
         <f>COUNTA(D5:D44)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E45" s="22">
         <f t="shared" ref="E45:G45" si="1">COUNTA(E5:E44)</f>
@@ -11639,11 +11859,11 @@
       </c>
       <c r="G45" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" s="23">
         <f>COUNTIF(H5:H44,"X")</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -11681,11 +11901,11 @@
       </c>
       <c r="D50" s="10">
         <f>D49-D51</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E50" s="12">
         <f>D50/$D$49</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -11694,11 +11914,11 @@
       </c>
       <c r="D51" s="10">
         <f>H45</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E51" s="12">
         <f>D51/$D$49</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11725,8 +11945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8FFEA4-FAE9-4E98-A7DA-1A249C6193F4}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11743,26 +11963,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -11804,7 +12024,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f>IF(COUNTA(D5:G5)=0,"X","")</f>
+        <f t="shared" ref="H5:H38" si="0">IF(COUNTA(D5:G5)=0,"X","")</f>
         <v/>
       </c>
     </row>
@@ -11822,7 +12042,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f>IF(COUNTA(D6:G6)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -11840,7 +12060,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f>IF(COUNTA(D7:G7)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -11854,9 +12074,12 @@
       <c r="C8" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
-        <f>IF(COUNTA(D8:G8)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11869,9 +12092,12 @@
       <c r="C9" s="9" t="s">
         <v>85</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
-        <f>IF(COUNTA(D9:G9)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11888,7 +12114,7 @@
         <v>43</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f>IF(COUNTA(D10:G10)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -11902,9 +12128,12 @@
       <c r="C11" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="4" t="str">
-        <f>IF(COUNTA(D11:G11)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11921,7 +12150,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f>IF(COUNTA(D12:G12)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -11935,9 +12164,12 @@
       <c r="C13" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="4" t="str">
-        <f>IF(COUNTA(D13:G13)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11950,9 +12182,12 @@
       <c r="C14" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4" t="str">
-        <f>IF(COUNTA(D14:G14)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11969,7 +12204,7 @@
         <v>43</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f>IF(COUNTA(D15:G15)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -11987,7 +12222,7 @@
         <v>43</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f>IF(COUNTA(D16:G16)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12005,7 +12240,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f>IF(COUNTA(D17:G17)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12019,9 +12254,12 @@
       <c r="C18" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
-        <f>IF(COUNTA(D18:G18)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12038,7 +12276,7 @@
         <v>43</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f>IF(COUNTA(D19:G19)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12056,7 +12294,7 @@
         <v>43</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f>IF(COUNTA(D20:G20)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12074,7 +12312,7 @@
         <v>43</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f>IF(COUNTA(D21:G21)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12088,9 +12326,12 @@
       <c r="C22" s="9" t="s">
         <v>98</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="4" t="str">
-        <f>IF(COUNTA(D22:G22)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -12107,7 +12348,7 @@
         <v>43</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f>IF(COUNTA(D23:G23)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12121,9 +12362,12 @@
       <c r="C24" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
-        <f>IF(COUNTA(D24:G24)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12140,7 +12384,7 @@
         <v>43</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f>IF(COUNTA(D25:G25)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12158,7 +12402,7 @@
         <v>43</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f>IF(COUNTA(D26:G26)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12176,7 +12420,7 @@
         <v>43</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f>IF(COUNTA(D27:G27)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12190,9 +12434,12 @@
       <c r="C28" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="4" t="str">
-        <f>IF(COUNTA(D28:G28)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -12209,7 +12456,7 @@
         <v>43</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f>IF(COUNTA(D29:G29)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12223,9 +12470,12 @@
       <c r="C30" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="4" t="str">
-        <f>IF(COUNTA(D30:G30)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -12238,9 +12488,12 @@
       <c r="C31" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="4" t="str">
-        <f>IF(COUNTA(D31:G31)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -12253,9 +12506,12 @@
       <c r="C32" s="9" t="s">
         <v>108</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
-        <f>IF(COUNTA(D32:G32)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -12272,7 +12528,7 @@
         <v>43</v>
       </c>
       <c r="H33" s="4" t="str">
-        <f>IF(COUNTA(D33:G33)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12290,7 +12546,7 @@
         <v>43</v>
       </c>
       <c r="H34" s="4" t="str">
-        <f>IF(COUNTA(D34:G34)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12304,9 +12560,12 @@
       <c r="C35" s="9" t="s">
         <v>111</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
-        <f>IF(COUNTA(D35:G35)=0,"X","")</f>
-        <v>X</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -12323,7 +12582,7 @@
         <v>43</v>
       </c>
       <c r="H36" s="4" t="str">
-        <f>IF(COUNTA(D36:G36)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12341,7 +12600,7 @@
         <v>43</v>
       </c>
       <c r="H37" s="4" t="str">
-        <f>IF(COUNTA(D37:G37)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -12359,35 +12618,35 @@
         <v>43</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f>IF(COUNTA(D38:G38)=0,"X","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E39" s="22">
-        <f t="shared" ref="E39:G39" si="0">COUNTA(E5:E38)</f>
+        <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
         <v>0</v>
       </c>
       <c r="F39" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" s="23">
         <f>COUNTIF(H5:H38,"X")</f>
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -12421,11 +12680,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.61764705882352944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -12434,11 +12693,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.38235294117647056</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12460,8 +12719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50465DDD-5234-470A-A297-95DF11514D18}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12478,27 +12737,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -12713,9 +12972,12 @@
       <c r="C13" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -12810,9 +13072,12 @@
       <c r="C18" s="9" t="s">
         <v>128</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="3" t="s">
@@ -12851,9 +13116,12 @@
       <c r="C20" s="9" t="s">
         <v>130</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="3" t="s">
@@ -12930,9 +13198,12 @@
       <c r="C24" s="9" t="s">
         <v>134</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="3" t="s">
@@ -13015,9 +13286,12 @@
       <c r="C28" s="9" t="s">
         <v>138</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="3" t="s">
@@ -13102,9 +13376,12 @@
       <c r="C32" s="9" t="s">
         <v>142</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="3" t="s">
@@ -13143,9 +13420,12 @@
       <c r="C34" s="9" t="s">
         <v>144</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="3" t="s">
@@ -13282,14 +13562,14 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="22">
         <f>COUNTA(D5:D40)</f>
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E41" s="22">
         <f t="shared" ref="E41:G41" si="1">COUNTA(E5:E40)</f>
@@ -13305,7 +13585,7 @@
       </c>
       <c r="H41" s="23">
         <f>COUNTIF(H5:H40,"X")</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="3">
@@ -13344,11 +13624,11 @@
       </c>
       <c r="D46" s="10">
         <f>D45-D47</f>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E46" s="12">
         <f>D46/D45</f>
-        <v>0.75</v>
+        <v>0.94444444444444442</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -13357,11 +13637,11 @@
       </c>
       <c r="D47" s="10">
         <f>H41</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E47" s="12">
         <f>D47/D45</f>
-        <v>0.25</v>
+        <v>5.5555555555555552E-2</v>
       </c>
     </row>
   </sheetData>
@@ -13385,7 +13665,7 @@
     <sheetView topLeftCell="A4" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C4" sqref="C4"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13397,30 +13677,31 @@
     <col min="5" max="5" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -13479,9 +13760,12 @@
       <c r="C6" s="9" t="s">
         <v>152</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ref="H6:H37" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -13566,9 +13850,12 @@
       <c r="C11" s="9" t="s">
         <v>157</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -13671,9 +13958,12 @@
       <c r="C17" s="9" t="s">
         <v>163</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -13740,9 +14030,12 @@
       <c r="C21" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -13845,9 +14138,12 @@
       <c r="C27" s="9" t="s">
         <v>174</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -13932,6 +14228,9 @@
       <c r="C32" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="G32" s="3" t="s">
         <v>43</v>
       </c>
@@ -13989,9 +14288,12 @@
       <c r="C35" s="9" t="s">
         <v>182</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -14031,14 +14333,14 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="22">
         <f>COUNTA(D5:D37)</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E38" s="22">
         <f t="shared" ref="E38:G38" si="1">COUNTA(E5:E37)</f>
@@ -14054,7 +14356,7 @@
       </c>
       <c r="H38" s="23">
         <f>COUNTIF(H5:H37,"X")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -14099,11 +14401,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.81818181818181823</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -14112,11 +14414,11 @@
       </c>
       <c r="D45" s="10">
         <f>H38</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.18181818181818182</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14137,10 +14439,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581CE2C6-5A3B-4910-989B-A6ED716B8D89}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B5" sqref="B5"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5:D38"/>
+      <selection pane="topRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14157,27 +14459,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14263,9 +14565,12 @@
       <c r="C7" s="9" t="s">
         <v>187</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -14298,38 +14603,39 @@
       <c r="C9" s="9" t="s">
         <v>189</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+    <row r="10" spans="1:10" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
         <v>4273</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="55">
         <v>6</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>524</v>
-      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="58"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
@@ -14341,9 +14647,12 @@
       <c r="C11" s="9" t="s">
         <v>191</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="2" t="s">
@@ -14448,6 +14757,7 @@
       <c r="D16" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="E16" s="53"/>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -14467,6 +14777,7 @@
       <c r="C17" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="E17"/>
       <c r="F17" s="3" t="s">
         <v>43</v>
       </c>
@@ -14568,9 +14879,12 @@
       <c r="C22" s="9" t="s">
         <v>202</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="2" t="s">
@@ -14628,9 +14942,13 @@
       <c r="C25" s="9" t="s">
         <v>205</v>
       </c>
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="53"/>
       <c r="H25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I25" s="4"/>
     </row>
@@ -14696,7 +15014,7 @@
         <v/>
       </c>
       <c r="I28" s="48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>43</v>
@@ -14778,9 +15096,12 @@
       <c r="C32" s="9" t="s">
         <v>212</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="2" t="s">
@@ -14857,9 +15178,12 @@
       <c r="C36" s="9" t="s">
         <v>216</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="2" t="s">
@@ -14895,21 +15219,24 @@
       <c r="C38" s="9" t="s">
         <v>218</v>
       </c>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -14925,7 +15252,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="2">
@@ -14964,11 +15291,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.70588235294117652</v>
+        <v>0.94117647058823528</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -14977,11 +15304,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15002,8 +15329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EE12D0-9DBC-4060-A74D-7E7E6A600169}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15019,26 +15346,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -15151,12 +15478,15 @@
       <c r="C9" s="9" t="s">
         <v>223</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>527</v>
+        <v/>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -15169,9 +15499,13 @@
       <c r="C10" s="9" t="s">
         <v>224</v>
       </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="53"/>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -15253,27 +15587,29 @@
       <c r="C15" s="9" t="s">
         <v>229</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63">
+        <v>1987</v>
+      </c>
+      <c r="B16" s="63">
+        <v>12</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="66" t="str">
+        <f t="shared" si="0"/>
         <v>X</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
-        <v>1987</v>
-      </c>
-      <c r="B16" s="49">
-        <v>12</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="H16" s="50" t="str">
-        <f t="shared" si="0"/>
-        <v>X</v>
-      </c>
-      <c r="I16" s="51" t="s">
+      <c r="I16" s="67" t="s">
         <v>517</v>
       </c>
     </row>
@@ -15287,9 +15623,12 @@
       <c r="C17" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -15317,9 +15656,12 @@
       <c r="C19" s="9" t="s">
         <v>233</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -15332,6 +15674,9 @@
       <c r="C20" s="9" t="s">
         <v>234</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" s="3" t="s">
         <v>43</v>
       </c>
@@ -15538,7 +15883,7 @@
         <v/>
       </c>
       <c r="I31" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -15587,9 +15932,12 @@
       <c r="C34" s="9" t="s">
         <v>248</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -15665,14 +16013,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -15688,7 +16036,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -15722,11 +16070,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.73529411764705888</v>
+        <v>0.91176470588235292</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -15735,11 +16083,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.26470588235294118</v>
+        <v>8.8235294117647065E-2</v>
       </c>
     </row>
   </sheetData>
@@ -15760,8 +16108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E1DDBF-2BA4-4D02-93FC-EAD0C83F48A7}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15777,27 +16125,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -15858,9 +16206,12 @@
       <c r="C6" s="9" t="s">
         <v>254</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ref="H6:H38" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="2" t="s">
@@ -16028,7 +16379,7 @@
       <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="45"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
       <c r="H14" s="46" t="str">
@@ -16036,7 +16387,7 @@
         <v/>
       </c>
       <c r="I14" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -16225,9 +16576,12 @@
       <c r="C23" s="9" t="s">
         <v>271</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="2" t="s">
@@ -16417,9 +16771,12 @@
       <c r="C32" s="9" t="s">
         <v>280</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="2" t="s">
@@ -16436,12 +16793,15 @@
       <c r="C33" s="9" t="s">
         <v>281</v>
       </c>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H33" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I33" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -16454,9 +16814,12 @@
       <c r="C34" s="9" t="s">
         <v>282</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="2" t="s">
@@ -16495,9 +16858,12 @@
       <c r="C36" s="9" t="s">
         <v>284</v>
       </c>
+      <c r="F36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
       <c r="I36" s="4"/>
     </row>
@@ -16546,14 +16912,14 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -16561,7 +16927,7 @@
       </c>
       <c r="F39" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="1"/>
@@ -16569,7 +16935,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I39" s="42"/>
     </row>
@@ -16604,11 +16970,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -16617,11 +16983,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.17647058823529413</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16642,8 +17008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26084B0-3C12-462B-B273-6776CCBE4AD2}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16660,26 +17026,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -16717,9 +17083,12 @@
       <c r="C5" s="9" t="s">
         <v>287</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H5" s="4" t="str">
         <f>IF(COUNTA(D5:G5)=0,"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -16732,9 +17101,12 @@
       <c r="C6" s="9" t="s">
         <v>288</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="4" t="str">
         <f t="shared" ref="H6:H38" si="0">IF(COUNTA(D6:G6)=0,"X","")</f>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -16747,9 +17119,12 @@
       <c r="C7" s="9" t="s">
         <v>289</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -16762,9 +17137,12 @@
       <c r="C8" s="9" t="s">
         <v>290</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -16777,9 +17155,12 @@
       <c r="C9" s="9" t="s">
         <v>291</v>
       </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -16807,9 +17188,12 @@
       <c r="C11" s="9" t="s">
         <v>293</v>
       </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -16822,9 +17206,12 @@
       <c r="C12" s="9" t="s">
         <v>294</v>
       </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -16837,9 +17224,12 @@
       <c r="C13" s="9" t="s">
         <v>295</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -16852,9 +17242,12 @@
       <c r="C14" s="9" t="s">
         <v>296</v>
       </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -16882,9 +17275,12 @@
       <c r="C16" s="9" t="s">
         <v>298</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -16897,9 +17293,12 @@
       <c r="C17" s="9" t="s">
         <v>300</v>
       </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -16912,9 +17311,12 @@
       <c r="C18" s="9" t="s">
         <v>301</v>
       </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -16927,9 +17329,12 @@
       <c r="C19" s="9" t="s">
         <v>302</v>
       </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -16942,9 +17347,12 @@
       <c r="C20" s="9" t="s">
         <v>303</v>
       </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -16957,9 +17365,12 @@
       <c r="C21" s="9" t="s">
         <v>304</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -16972,9 +17383,12 @@
       <c r="C22" s="9" t="s">
         <v>305</v>
       </c>
+      <c r="F22" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -16987,9 +17401,12 @@
       <c r="C23" s="9" t="s">
         <v>306</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -17002,9 +17419,12 @@
       <c r="C24" s="9" t="s">
         <v>307</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -17017,7 +17437,7 @@
       <c r="C25" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="53" t="s">
         <v>43</v>
       </c>
       <c r="H25" s="4" t="str">
@@ -17035,9 +17455,12 @@
       <c r="C26" s="9" t="s">
         <v>309</v>
       </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -17050,9 +17473,12 @@
       <c r="C27" s="9" t="s">
         <v>310</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -17065,9 +17491,12 @@
       <c r="C28" s="9" t="s">
         <v>311</v>
       </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -17080,7 +17509,7 @@
       <c r="C29" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="53" t="s">
         <v>43</v>
       </c>
       <c r="H29" s="4" t="str">
@@ -17098,9 +17527,12 @@
       <c r="C30" s="9" t="s">
         <v>313</v>
       </c>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -17113,9 +17545,12 @@
       <c r="C31" s="9" t="s">
         <v>314</v>
       </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -17128,9 +17563,12 @@
       <c r="C32" s="9" t="s">
         <v>315</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -17158,9 +17596,12 @@
       <c r="C34" s="9" t="s">
         <v>317</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -17173,7 +17614,7 @@
       <c r="C35" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="53" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="4" t="str">
@@ -17191,9 +17632,12 @@
       <c r="C36" s="9" t="s">
         <v>319</v>
       </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -17206,9 +17650,12 @@
       <c r="C37" s="9" t="s">
         <v>320</v>
       </c>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>X</v>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -17227,14 +17674,14 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="61" t="s">
         <v>491</v>
       </c>
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="22">
         <f>COUNTA(D5:D38)</f>
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E39" s="22">
         <f t="shared" ref="E39:G39" si="1">COUNTA(E5:E38)</f>
@@ -17242,7 +17689,7 @@
       </c>
       <c r="F39" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G39" s="22">
         <f t="shared" si="1"/>
@@ -17250,7 +17697,7 @@
       </c>
       <c r="H39" s="23">
         <f>COUNTIF($H$5:$H$38,"X")</f>
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -17284,11 +17731,11 @@
       </c>
       <c r="D44" s="10">
         <f>D43-D45</f>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E44" s="12">
         <f>D44/D43</f>
-        <v>8.8235294117647065E-2</v>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
@@ -17297,11 +17744,11 @@
       </c>
       <c r="D45" s="10">
         <f>H39</f>
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E45" s="12">
         <f>D45/D43</f>
-        <v>0.91176470588235292</v>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
